--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value330.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value330.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7419338473238818</v>
+        <v>0.8292313814163208</v>
       </c>
       <c r="B1">
-        <v>1.261735252797124</v>
+        <v>1.137549638748169</v>
       </c>
       <c r="C1">
-        <v>4.132317557631842</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>3.104173237670838</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.180287375609155</v>
+        <v>1.360448598861694</v>
       </c>
     </row>
   </sheetData>
